--- a/artifacts/recipes/new_data/allrecipescom/chineese/chineese_beef.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/chineese/chineese_beef.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699641126-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Chinese Beef Main Dishes</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699641134-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1ibaSyiHktYGNhPqvX-mhKuQZpQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/432442-44e26b67d337435590e0a0d434882dac.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/161117/spicy-beef-filet-in-oyster-sauce/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Spicy Beef Filet in Oyster Sauce</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n40 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n4 \n\n\nYield:\n4 small servings"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon vegetable oil\n\n\n1 teaspoon oyster sauce\n\n\n½ teaspoon cornstarch\n\n\n¾ pound beef tenderloin, cut into 1/4 inch strips\n\n\n1 teaspoon water\n\n\n1 teaspoon cornstarch\n\n\n2 tablespoons oyster sauce\n\n\n1 teaspoon sugar\n\n\n1 teaspoon black pepper\n\n\n1 tablespoon vegetable oil\n\n\n½  onion, thinly sliced"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon vegetable oil\n\n\n1 teaspoon oyster sauce\n\n\n½ teaspoon cornstarch\n\n\n¾ pound beef tenderloin, cut into 1/4 inch strips\n\n\n1 teaspoon water\n\n\n1 teaspoon cornstarch\n\n\n2 tablespoons oyster sauce\n\n\n1 teaspoon sugar\n\n\n1 teaspoon black pepper\n\n\n1 tablespoon vegetable oil\n\n\n½  onion, thinly sliced'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir together 1 teaspoon vegetable oil, 1 teaspoon oyster sauce, and 1/2 teaspoon cornstarch in a bowl. Add beef and toss to coat. Marinate in the refrigerator 30 to 45 minutes. Remove from the refrigerator 10 minutes before cooking."},{"recipe_directions":"Stir together water, 1 teaspoon cornstarch, 2 tablespoons oyster sauce, and pepper in a small bowl; set aside. Heat 1 tablespoon vegetable oil in a large skillet over high heat. Stir in onion, and cook until it beings to brown on the edges, about 1 minute. Add the beef, and continue cooking and stirring until the beef is just slightly pink, about 5 minutes. Pour in the sauce; cook and stir until the sauce has thickened and turned translucent, about 1 minute more."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"202\nCalories\n\n\n15g \nFat\n\n\n4g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699641141-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7v9nHfrtmN7AlUGPhUbWFHhkGQ0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1099545-cfeb59b785ca400b97f932c709841e33.jpg"
@@ -268,59 +605,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/229242/fun-karnal-beef-and-broccoli/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Fun Karnal (Beef and Broccoli)</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  1 1/2-inch-thick New York strip steaks, cut into 1-inch pieces\n\n\n2 teaspoons dried minced onion\n\n\n¼ teaspoon minced garlic\n\n\n1 tablespoon soy sauce (Optional)\n\n\n2 cups white rice\n\n\n4 cups water\n\n\n2 tablespoons vegetable oil\n\n\n½ cup canned sliced bamboo shoots, drained\n\n\n½ cup canned sliced mushrooms, drained (Optional)\n\n\n¼ cup chopped green onion\n\n\n½  green bell pepper, thinly sliced\n\n\n½ teaspoon red pepper flakes (Optional)\n\n\n3 tablespoons soy sauce (Optional)\n\n\n1 cup broccoli florets\n\n\n¼ cup sugar snap peas (Optional)\n\n\n2 teaspoons cornstarch\n\n\n2 tablespoons water\n\n\n½ (10 fluid ounce) bottle oyster sauce\n\n\n¼ cup chopped green onion"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  1 1/2-inch-thick New York strip steaks, cut into 1-inch pieces\n\n\n2 teaspoons dried minced onion\n\n\n¼ teaspoon minced garlic\n\n\n1 tablespoon soy sauce (Optional)\n\n\n2 cups white rice\n\n\n4 cups water\n\n\n2 tablespoons vegetable oil\n\n\n½ cup canned sliced bamboo shoots, drained\n\n\n½ cup canned sliced mushrooms, drained (Optional)\n\n\n¼ cup chopped green onion\n\n\n½  green bell pepper, thinly sliced\n\n\n½ teaspoon red pepper flakes (Optional)\n\n\n3 tablespoons soy sauce (Optional)\n\n\n1 cup broccoli florets\n\n\n¼ cup sugar snap peas (Optional)\n\n\n2 teaspoons cornstarch\n\n\n2 tablespoons water\n\n\n½ (10 fluid ounce) bottle oyster sauce\n\n\n¼ cup chopped green onion'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place steak in a bowl; top with minced onion, garlic, and 1 tablespoon soy sauce. Stir to coat."},{"recipe_directions":"Bring rice and 4 cups water to a boil in a saucepan over high heat. Reduce heat to medium-low, cover, and simmer until the rice is tender, and the liquid has been absorbed, 20 to 25 minutes."},{"recipe_directions":"Heat vegetable oil in a skillet over medium heat; cook and stir bamboo shoots, mushrooms, 1/4 cup green onion, green bell pepper, red pepper flakes, and 3 tablespoons soy sauce in the hot oil until green bell pepper is slightly tender, 4 to 5 minutes. Add steak, broccoli, and sugar snap peas; cook until beef is browned and no longer pink in the center, about 10 minutes."},{"recipe_directions":"Whisk cornstarch and 2 tablespoons water together in a bowl until cornstarch is dissolved. Heat oyster sauce in a saucepan over medium-low heat; slowly stir in cornstarch mixture until sauce is thickened, 3 to 5 minutes. Stir oyster sauce mixture into steak mixture; sprinkle with 1/4 cup green onions. Cook steak mixture until sauce is thickened, 7 to 8 minutes. Serve over rice."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"639\nCalories\n\n\n19g \nFat\n\n\n87g \nCarbs\n\n\n28g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699641148-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XMe9v_AAvG4rZiBfAok8EJ8TSM8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/297149-089bd13b0c6f4b9ab5c432b62a24fb58.jpg"
@@ -333,59 +666,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/26627/mongolian-beef-ii/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Mongolian Beef II</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds boneless sirloin tip roast\n\n\n½ cup soy sauce\n\n\n2 tablespoons dry sherry\n\n\n2 teaspoons sesame oil\n\n\n3 tablespoons cornstarch\n\n\n2 tablespoons brown sugar\n\n\n2 teaspoons crushed red pepper\n\n\n5  whole dried red chile peppers\n\n\n⅜ cup vegetable oil, divided\n\n\n4 bunches green onions, cut into 2 inch pieces"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds boneless sirloin tip roast\n\n\n½ cup soy sauce\n\n\n2 tablespoons dry sherry\n\n\n2 teaspoons sesame oil\n\n\n3 tablespoons cornstarch\n\n\n2 tablespoons brown sugar\n\n\n2 teaspoons crushed red pepper\n\n\n5  whole dried red chile peppers\n\n\n⅜ cup vegetable oil, divided\n\n\n4 bunches green onions, cut into 2 inch pieces'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Partially freeze the roast for easier slicing. Slice the roast into 3x1/2 inch strips, and set aside."},{"recipe_directions":"In a large bowl, combine well the soy sauce, sherry, sesame oil, cornstarch, brown sugar, crushed red pepper and whole chile peppers. Place beef in the mixture and coat well. Cover and refrigerate for 20 to 30 minutes."},{"recipe_directions":"Heat 2 tablespoons of the oil in a large skillet or wok over medium high heat. Place green onions in the hot oil. Cover, reduce heat to low and cook 6 minutes, or until tender. Remove green onions and set aside."},{"recipe_directions":"In the same skillet or wok, heat remaining 1/4 cup of oil over medium high heat. Add beef mixture and saute for 5 minutes, or until the beef is thoroughly cooked. Return green onions to the pan and saute for 30 seconds more, or until heated through."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"349\nCalories\n\n\n22g \nFat\n\n\n16g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699641157-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kZnAxxtW2n4mA2C1bnDXTK7tuQg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/7265451-01b27cac903e47f19fd451c9817a73fa.jpg"
@@ -398,59 +727,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/277230/beef-and-riced-broccoli-bowl/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Beef and Riced Broccoli Bowl</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup beef broth\n\n\n¼ cup hoisin sauce\n\n\n2 tablespoons reduced-sodium soy sauce\n\n\n2 tablespoons sesame oil, divided\n\n\n1 tablespoon oyster sauce\n\n\n1 tablespoon cornstarch\n\n\n1 teaspoon brown sugar\n\n\n1 ¼ pounds New York strip steak, thinly sliced into bite-sized pieces\n\n\n2 tablespoons butter\n\n\n2 (10 ounce) bags frozen broccoli rice\n\n\n1 teaspoon minced garlic\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n1 teaspoon toasted sesame seeds, or to taste (Optional)\n\n\n⅛ teaspoon red pepper flakes, or to taste (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup beef broth\n\n\n¼ cup hoisin sauce\n\n\n2 tablespoons reduced-sodium soy sauce\n\n\n2 tablespoons sesame oil, divided\n\n\n1 tablespoon oyster sauce\n\n\n1 tablespoon cornstarch\n\n\n1 teaspoon brown sugar\n\n\n1 ¼ pounds New York strip steak, thinly sliced into bite-sized pieces\n\n\n2 tablespoons butter\n\n\n2 (10 ounce) bags frozen broccoli rice\n\n\n1 teaspoon minced garlic\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n1 teaspoon toasted sesame seeds, or to taste (Optional)\n\n\n⅛ teaspoon red pepper flakes, or to taste (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together beef broth, hoisin sauce, soy sauce, 1 tablespoon sesame oil, oyster sauce, cornstarch, and brown sugar in a bowl until cornstarch and sugar are dissolved."},{"recipe_directions":"Place sliced steak in a separate bowl and drizzle with remaining 1 tablespoon of sesame oil. Stir until evenly coated."},{"recipe_directions":"Melt butter in a large skillet over medium-high heat. Add broccoli rice, garlic, salt, and pepper. Cook for 5 minutes; stirring occasionally. Divide broccoli rice into serving bowls."},{"recipe_directions":"Add beef to the skillet. Cook over medium-high heat, stirring continually, for 5 minutes. Pour sauce over beef and cook for 5 more minutes or until sauce has thickened."},{"recipe_directions":"Spoon beef over broccoli rice. Garnish with sesame seeds and crushed red pepper."},{"recipe_directions":"Feel free to substitute rib eye steak for the New York strip, if desired."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"452\nCalories\n\n\n25g \nFat\n\n\n21g \nCarbs\n\n\n37g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699641164-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Pc-ACSb6PgXppaphWf9D_gLncz4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1360342-c4c11f34e1ef4e758942bd6564901579.jpg"
@@ -463,59 +788,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/234070/jameys-restaurant-style-beef-and-broccoli/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Jamey's Restaurant Style Beef and Broccoli</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n4 \n\n\nYield:\n4 large servings"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅓ cup dry sherry\n\n\n⅓ cup oyster sauce\n\n\n2 teaspoons Asian (toasted) sesame oil\n\n\n1 teaspoon soy sauce\n\n\n1 teaspoon white sugar\n\n\n1 teaspoon cornstarch\n\n\n1 ½ pounds beef sirloin steak, trimmed and cut into 1/8-inch-thick slices\n\n\n3 tablespoons vegetable oil, plus more if needed\n\n\n1  thin slice fresh ginger root\n\n\n1 clove garlic, minced\n\n\n1 pound broccoli, cut into florets\n\n\n1 (16 ounce) can sliced mushrooms, drained\n\n\n8 ounces snow peas"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅓ cup dry sherry\n\n\n⅓ cup oyster sauce\n\n\n2 teaspoons Asian (toasted) sesame oil\n\n\n1 teaspoon soy sauce\n\n\n1 teaspoon white sugar\n\n\n1 teaspoon cornstarch\n\n\n1 ½ pounds beef sirloin steak, trimmed and cut into 1/8-inch-thick slices\n\n\n3 tablespoons vegetable oil, plus more if needed\n\n\n1  thin slice fresh ginger root\n\n\n1 clove garlic, minced\n\n\n1 pound broccoli, cut into florets\n\n\n1 (16 ounce) can sliced mushrooms, drained\n\n\n8 ounces snow peas'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk sherry, oyster sauce, sesame oil, soy sauce, sugar, and cornstarch together in a bowl until sugar dissolves."},{"recipe_directions":"Arrange steak slices in a shallow bowl, pour the oyster sauce mixture over the meat, stir to coat, and refrigerate at least 30 minutes."},{"recipe_directions":"Heat vegetable oil in a wok or large skillet over medium-high heat. Cook and stir ginger and garlic in hot oil until fragrant about 1 minute. Remove and discard the ginger and garlic. Stir broccoli, mushrooms, and snow peas together in the skillet; cook and stir in the hot oil until the broccoli is bright green and almost tender, 5 to 7 minutes. Remove the vegetable mixture to a bowl."},{"recipe_directions":"Pour beef slices with the marinade into the skillet; cook and stir until the sauce forms a glaze on the beef and the meat is no longer pink, about 5 minutes. Return the cooked vegetables to the wok; cook and stir until the broccoli is heated through, about 3 minutes."},{"recipe_directions":"Some make-ahead tips: Cut up all the vegetables and beef and store in fridge. The rest will be easy and a quick after-work throw-together."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"446\nCalories\n\n\n23g \nFat\n\n\n23g \nCarbs\n\n\n37g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699641174-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_3me_wGR85MgfW_igPcutYdgXkc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(755x0:757x2):format(webp)/5670410-cbdff4e953f94862a81912afdf57ca7d.jpg"
@@ -528,59 +849,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/221127/spicy-orange-zest-beef/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Spicy Orange Zest Beef</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n 1 hr 35 mins\n\n\nTotal Time:\n 2 hrs\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound beef tenderloin, cut into 1/2 inch strips\n\n\n¼ cup orange juice\n\n\n¼ cup seasoned rice vinegar\n\n\n2 tablespoons soy sauce\n\n\n1 tablespoon hot chile paste (such as sambal oelek)\n\n\n1 tablespoon brown sugar, or to taste\n\n\n2 cloves garlic, minced\n\n\n¼ cup water\n\n\n1 teaspoon cornstarch\n\n\n  cooking spray\n\n\n2 tablespoons grated orange zest\n\n\n1 bunch green onions, sliced - white parts and tops separated\n\n\n  salt and freshly ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound beef tenderloin, cut into 1/2 inch strips\n\n\n¼ cup orange juice\n\n\n¼ cup seasoned rice vinegar\n\n\n2 tablespoons soy sauce\n\n\n1 tablespoon hot chile paste (such as sambal oelek)\n\n\n1 tablespoon brown sugar, or to taste\n\n\n2 cloves garlic, minced\n\n\n¼ cup water\n\n\n1 teaspoon cornstarch\n\n\n  cooking spray\n\n\n2 tablespoons grated orange zest\n\n\n1 bunch green onions, sliced - white parts and tops separated\n\n\n  salt and freshly ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine beef, orange juice, rice vinegar, soy sauce, hot chili paste, brown sugar, and garlic in a large bowl. Cover and refrigerate for 1 to 2 hours."},{"recipe_directions":"Strain beef in a colander set over a large bowl, allowing beef to drain thoroughly, about 5 minutes. Reserve marinade."},{"recipe_directions":"Stir water and cornstarch into the bowl of marinade. Whisk until cornstarch is dissolved, set aside."},{"recipe_directions":"Spray skillet with cooking spray and place over high heat. Cook beef for 1 minute without stirring; cook and stir for an additional minute."},{"recipe_directions":"Stir in light parts of green onion and orange zest; cook for 30 seconds."},{"recipe_directions":"Stir in marinade and green onion tops; cook and stir until beef is no longer pink inside and sauce is reduced and thick, about 2 to 3 minutes."},{"recipe_directions":"Season with salt and black pepper to taste."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"267\nCalories\n\n\n14g \nFat\n\n\n17g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699641185-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/s0mB5IdZaC5D9rZjkSEajkgUqPg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(539x0:541x2):format(webp)/86410-Hot-and-Tangy-Broccoli-Beef-naples34102_5181687_original-1x1-1-10021698202b4cc5adbec9d2d6fd501d.jpg"
@@ -594,59 +911,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/86410/hot-and-tangy-broccoli-beef/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Hot and Tangy Broccoli Beef</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ pound boneless tender beef steak, rib eye, sirloin or flank\n\n\n1 tablespoon cornstarch\n\n\n3 tablespoons Kikkoman Soy Sauce, divided\n\n\n1 large clove garlic, minced\n\n\n½ teaspoon sugar\n\n\n1 pound fresh broccoli, trimmed\n\n\n4 teaspoons cornstarch\n\n\n½ teaspoon crushed red pepper\n\n\n3 tablespoons vegetable oil, divided\n\n\n1 medium onion, thinly sliced\n\n\n2 teaspoons Kikkoman Seasoned Rice Vinegar"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ pound boneless tender beef steak, rib eye, sirloin or flank\n\n\n1 tablespoon cornstarch\n\n\n3 tablespoons Kikkoman Soy Sauce, divided\n\n\n1 large clove garlic, minced\n\n\n½ teaspoon sugar\n\n\n1 pound fresh broccoli, trimmed\n\n\n4 teaspoons cornstarch\n\n\n½ teaspoon crushed red pepper\n\n\n3 tablespoons vegetable oil, divided\n\n\n1 medium onion, thinly sliced\n\n\n2 teaspoons Kikkoman Seasoned Rice Vinegar'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cut beef across grain into thin slices. Combine 1 Tbsp. each cornstarch and soy sauce with garlic and sugar in medium bowl; stir in beef. Let stand 10 minutes."},{"recipe_directions":"Meanwhile, remove flowerets from broccoli; cut into bite-size pieces. Peel stalks; cut diagonally into thin slices."},{"recipe_directions":"Combine 1 cup water, remaining 2 Tbsp. soy sauce, 4 teaspoons cornstarch and crushed red pepper in small bowl. Set aside."},{"recipe_directions":"Heat 1 Tbsp. oil in hot wok or large skillet over high heat. Add beef and stir-fry 1 minute; remove."},{"recipe_directions":"Heat remaining 2 Tbsp. oil in same pan. Add broccoli and onion; stir-fry 2 minutes. Sprinkle 1 Tbsp. water over vegetables; cover and cook 2 minutes, stirring occasionally."},{"recipe_directions":"Add beef and soy sauce mixture; cook and stir until sauce boils and thickens. Remove from heat; stir in vinegar."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Rice"},{"recipe_tags":"Dinner"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"263\nCalories\n\n\n16g \nFat\n\n\n16g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699641196-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tSkLExw5s3-b4ol37yVN8zVtEME=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/4513430-05c5d4f1b95f4f88bc66c31c68971233.jpg"
@@ -659,59 +972,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18792/szechuan-spicy-eggplant/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Szechuan Spicy Eggplant</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (1 1/2 pound) eggplant\n\n\n¼ cup soy sauce\n\n\n¼ cup chicken stock\n\n\n2 tablespoons oyster sauce (Optional)\n\n\n1 teaspoon chili sauce\n\n\n1 teaspoon white sugar\n\n\n½ teaspoon ground black pepper\n\n\n¼ cup water\n\n\n1 tablespoon cornstarch\n\n\n  cooking spray\n\n\n4 large green onions, finely chopped\n\n\n1 tablespoon chopped fresh ginger root\n\n\n2 cloves garlic, minced\n\n\n⅓ pound lean ground beef\n\n\n¼ pound fresh shrimp - peeled, deveined, and diced\n\n\n1 tablespoon sesame oil\n\n\n4 cups hot cooked rice"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (1 1/2 pound) eggplant\n\n\n¼ cup soy sauce\n\n\n¼ cup chicken stock\n\n\n2 tablespoons oyster sauce (Optional)\n\n\n1 teaspoon chili sauce\n\n\n1 teaspoon white sugar\n\n\n½ teaspoon ground black pepper\n\n\n¼ cup water\n\n\n1 tablespoon cornstarch\n\n\n  cooking spray\n\n\n4 large green onions, finely chopped\n\n\n1 tablespoon chopped fresh ginger root\n\n\n2 cloves garlic, minced\n\n\n⅓ pound lean ground beef\n\n\n¼ pound fresh shrimp - peeled, deveined, and diced\n\n\n1 tablespoon sesame oil\n\n\n4 cups hot cooked rice'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Remove eggplant stem and cut flesh into 1-inch cubes. Set aside."},{"recipe_directions":"Mix together soy sauce, stock, oyster sauce, chili sauce, sugar, and black pepper in a medium bowl until well combined; set aside. Stir together water and cornstarch in a small bowl until smooth; set aside."},{"recipe_directions":"Coat a large, deep pan with cooking spray over high heat and heat until very hot, about 3 minutes. Cook and stir 1/2 of the green onions, ginger, and garlic in the hot pan until lightly browned, 3 to 5 minutes. Add beef; cook and stir until lightly browned and crumbly, about 3 minutes."},{"recipe_directions":"Stir in eggplant, then pour soy sauce mixture over all. Cover the pan, reduce heat to medium low, and let simmer for 15 minutes, stirring occasionally. Add shrimp during the last few minutes of cooking."},{"recipe_directions":"Stir in cornstarch mixture and cook until thickened. Mix in remaining green onions and sesame oil. Serve over hot rice."},{"recipe_directions":"You can use 3 tablespoons dried shrimp instead of fresh shrimp; add with the garlic and ginger in step 3."},{"recipe_directions":"You can use ground pork instead of ground beef."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"441\nCalories\n\n\n13g \nFat\n\n\n62g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699641205-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/E6FnJhocFyNJUxlHgK9rXNbdtlg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(324x0:326x2):format(webp)/fileB7w3F1-72f174ad681b4b9fa8b6b9094371056b.jpg"
@@ -723,59 +1032,55 @@
 7 Gluten-Free Slow-Cooker Dinners</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/article/gluten-free-slow-cooker-dinners/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>7 Gluten-Free Slow-Cooker Dinners</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Oh, slow cooker, you make life so much easier for us! But for those of us who need slow cooker deliciousness to also be gluten-free, that ease can be a little harder to come by. Or is it? Many beef-and-potato stew recipes are naturally gluten-free. But many recipes that seem gluten-free may contain some foods you'd never think would contain gluten (hello, soy sauce!). These seven top-rated, wildly delicious, gluten-free slow-cooker dinners appeal to gluten fiends and gluten-frees alike. Enjoy!"},{"recipe_directions":"1. Slow Cooker Spanish Beef Stew"},{"recipe_directions":"Jen79 gave this recipe by Moefunk04 five stars, and added a couple of tweaks of her own: \"I cooked this for four hours on low and then one and a half on high. My husband and I really enjoyed it.\""},{"recipe_directions":"Get the Recipe: Slow Cooker Spanish Beef Stew"},{"recipe_directions":"2. Charley's Slow Cooker Mexican-Style Meat"},{"recipe_directions":"Recipe creator CHARLEY357 says, \"This recipe can be used with chicken, beef, pork and even venison. It freezes well, and can be made into burritos or tacos.\" So, just get yourself some corn tortillas and some Mexican food fixins, and you're in business!"},{"recipe_directions":"Get the Recipe: Charley's Slow Cooker Mexican-Style Meat"},{"recipe_directions":"3. Slow Cooker Chicken Tortilla Soup"},{"recipe_directions":"\"This was a hit!\" says Betsy of this recipe by Elena. \"Super easy and very tasty. I threw in a couple of frozen chicken breasts rather than cooking them first and saved myself a step. (I shredded them towards the end.)\""},{"recipe_directions":"Get the Recipe: Slow Cooker Chicken Tortilla Soup"},{"recipe_directions":"4. Slow Cooker Pepper Steak"},{"recipe_directions":"\"This was easy and delicious!\" Says TRACI8878 of this recipe by MJWAGNER68. \"I added a couple of cloves of chopped garlic and a few dashes of Worcestershire sauce.\" Many reviewers also recommend adding the peppers at the end if you like them crisper. Make sure you substitute Tamari, gluten-free soy sauce, in place of the regular soy sauce this recipe calls for."},{"recipe_directions":"Get the Recipe: Slow Cooker Pepper Steak"},{"recipe_directions":"5. Slow Cooker Lemon Garlic Chicken II"},{"recipe_directions":"\"A wonderful 'fix and forget' recipe that is easy and pleases just about everyone,\" says recipe creator Carla Joy. She suggests serving it \"with rice or pasta, or even alone.\" Gluten-free tip: There are so many delicious gluten-free pasta options these days, so don't count out that pasta option just yet. You can always serve this over rice, though."},{"recipe_directions":"Get the Recipe: Slow Cooker Lemon Garlic Chicken II"},{"recipe_directions":"6. Pork Chalupas"},{"recipe_directions":"\"Delicious!\" says Athena of this recipe by Stefani Ferguson. \"The only thing I did differently was toss the raw beef in adobo saffron spices before browning it. Otherwise I followed the recipe to a tee. Definitely a new family favorite! Even my 2 year old loves it!\" IMPORTANT NOTE: To go fully gluten-free, be sure to use corn tortillas rather than the flour ones the recipe calls for."},{"recipe_directions":"Get the Recipe: Pork Chalupas"},{"recipe_directions":"7. Slow Cooker Mongolian Beef"},{"recipe_directions":"Use Tamari gluten-free soy sauce instead of regular soy sauce, and you'll have a meal that \"tastes like you got it at a Chinese restaurant,\" says recipe creator, leith123. Serve this over rice or rice noodles."},{"recipe_directions":"Get the Recipe: Slow Cooker Mongolian Beef"},{"recipe_directions":"More Gluten-Free Goodness:"},{"recipe_directions":"Breakfast of Champions: Gluten-Free Pancakes"},{"recipe_directions":"Tasty Flourless Peanut Butter Cookies"},{"recipe_directions":"The Epic Allrecipes Library of 1,300 Gluten-Free Recipes"}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Kitchen Tips"},{"recipe_tags":"How To"},{"recipe_tags":"Dinner Fix"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699641211-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/rSGqa-wnq85KtiXRIRJ1zmk1yKI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(223x149:225x151):format(webp)/1107825-beefy-chinese-dumplings-Mainerisms-4x3-1-c53e96c05c394015ab21c495d09b9632.jpg"
@@ -789,59 +1094,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/87535/beefy-chinese-dumplings/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Beefy Chinese Dumplings</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds ground beef\n\n\n2 cups shredded Chinese cabbage\n\n\n1 medium carrot, shredded\n\n\n1 medium onion, minced\n\n\n1 large egg\n\n\n1 tablespoon soy sauce\n\n\n1 tablespoon vegetable oil\n\n\n1 teaspoon sugar\n\n\n1 teaspoon salt\n\n\n1 (14 ounce) package wonton wrappers"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds ground beef\n\n\n2 cups shredded Chinese cabbage\n\n\n1 medium carrot, shredded\n\n\n1 medium onion, minced\n\n\n1 large egg\n\n\n1 tablespoon soy sauce\n\n\n1 tablespoon vegetable oil\n\n\n1 teaspoon sugar\n\n\n1 teaspoon salt\n\n\n1 (14 ounce) package wonton wrappers'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix together beef, cabbage, carrot, and onion in a large bowl. Stir in egg, soy sauce, oil, sugar, and salt."},{"recipe_directions":"Place 1 heaping teaspoon filling in the center of a wonton wrapper. Moisten wonton edges with a few drops water. Fold dumpling in half and pinch the edges together to seal. Create a ripple pattern along the sealed edge by pinching and gently pushing together small segments. Repeat to make remaining dumplings."},{"recipe_directions":"Bring a large pot of water to a boil. Add dumplings and cook until they float to the surface, about 5 minutes. Drain."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Dumpling Recipes"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"356\nCalories\n\n\n21g \nFat\n\n\n25g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699641218-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XMvMvGF2A83L9klLegtoWJlvGFc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/116932-eb90f8b99324437f9fb76d6d6e067607.jpg"
@@ -854,59 +1155,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/148647/orange-peel-beef/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Orange Peel Beef</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 35 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds beef top sirloin, thinly sliced\n\n\n1 tablespoon low-sodium soy sauce\n\n\n1 tablespoon cornstarch\n\n\n1 teaspoon dark sesame oil\n\n\n½ teaspoon baking soda\n\n\n1 tablespoon low-sodium soy sauce\n\n\n2 tablespoons frozen orange juice concentrate, thawed\n\n\n1 tablespoon rice vinegar\n\n\n1 teaspoon dark sesame oil\n\n\n1 tablespoon brown sugar\n\n\n1 teaspoon cornstarch\n\n\n1 tablespoon peanut oil\n\n\n3 cloves garlic, minced\n\n\n1 tablespoon minced fresh ginger root\n\n\n1 tablespoon finely shredded orange zest\n\n\n¼ teaspoon red pepper flakes"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds beef top sirloin, thinly sliced\n\n\n1 tablespoon low-sodium soy sauce\n\n\n1 tablespoon cornstarch\n\n\n1 teaspoon dark sesame oil\n\n\n½ teaspoon baking soda\n\n\n1 tablespoon low-sodium soy sauce\n\n\n2 tablespoons frozen orange juice concentrate, thawed\n\n\n1 tablespoon rice vinegar\n\n\n1 teaspoon dark sesame oil\n\n\n1 tablespoon brown sugar\n\n\n1 teaspoon cornstarch\n\n\n1 tablespoon peanut oil\n\n\n3 cloves garlic, minced\n\n\n1 tablespoon minced fresh ginger root\n\n\n1 tablespoon finely shredded orange zest\n\n\n¼ teaspoon red pepper flakes'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine beef, 1 tablespoon of soy sauce, 1 tablespoon cornstarch, 1 teaspoon sesame oil, and baking soda in a bowl and mix thoroughly. Cover and refrigerate, 1 to 3 hours."},{"recipe_directions":"Heat peanut oil in a wok or large, nonstick skillet over high heat. Stir in garlic, ginger, orange zest, and red pepper flakes, and cook until garlic begins to brown, 20 to 30 seconds. Add beef; cook and stir until beef begins to brown and crisp, about 5 minutes. Whisk together 1 tablespoon soy sauce, orange juice concentrate, rice vinegar, 1 teaspoon sesame oil, brown sugar, and 1 teaspoon cornstarch in a small bowl. Stir into beef, and cook until sauce has thickened and turned clear, about 30 seconds."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"189\nCalories\n\n\n8g \nFat\n\n\n8g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699641224-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kTOl4nYb3pc04NwkYpumxH8fuGg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1652x0:1654x2):format(webp)/9112752-5f83b552d7794ee296a8f0c6017ede8a.jpg"
@@ -919,59 +1216,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/22625/mongolian-beef-i/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Mongolian Beef I</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n35 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon sesame seeds\n\n\n1 tablespoon soy sauce\n\n\n1 tablespoon cornstarch\n\n\n2 cloves garlic, minced\n\n\n1 pound beef round steak, cut into thin strips\n\n\n¾ cup water\n\n\n2 tablespoons soy sauce\n\n\n2 ½ teaspoons cornstarch\n\n\n½ teaspoon white sugar\n\n\n1 teaspoon red pepper flakes\n\n\n2 tablespoons vegetable oil, divided\n\n\n2  carrots, thinly sliced\n\n\n1 bunch green onions, cut into 2 inch pieces"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon sesame seeds\n\n\n1 tablespoon soy sauce\n\n\n1 tablespoon cornstarch\n\n\n2 cloves garlic, minced\n\n\n1 pound beef round steak, cut into thin strips\n\n\n¾ cup water\n\n\n2 tablespoons soy sauce\n\n\n2 ½ teaspoons cornstarch\n\n\n½ teaspoon white sugar\n\n\n1 teaspoon red pepper flakes\n\n\n2 tablespoons vegetable oil, divided\n\n\n2  carrots, thinly sliced\n\n\n1 bunch green onions, cut into 2 inch pieces'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a dry skillet over medium heat, toast sesame seeds for 1 to2 minutes, or until the seeds begin to turn golden brown; set aside."},{"recipe_directions":"In a medium bowl, mix together 1 tablespoon soy sauce, 1 tablespoon cornstarch, and minced garlic. Stir in beef strips. Let stand for at least 10 minutes."},{"recipe_directions":"In a separate small bowl, mix together water, 2 tablespoons soy sauce, 2 1/2 teaspoons cornstarch, sugar, sesame seeds, and red pepper flakes; set aside."},{"recipe_directions":"Heat 1 tablespoon of oil in a wok or skillet over high heat. Cook and stir beef in hot oil for 1 minute; remove, and set aside. Heat remaining tablespoon of oil in the same pan. Saute carrots and white part of green onions for 2 minutes. Stir in green parts of the green onion, and saute for 1 minute. Stir in sesame seed mixture and beef. Cook and stir until sauce boils and thickens."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"155\nCalories\n\n\n9g \nFat\n\n\n9g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699641230-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/YHZdF1nGT43wfhrmU5nIKLKrbX4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/819094-6fbcc60c771244b991ac469a0da09b03.jpg"
@@ -984,59 +1277,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/37965/asian-fire-meat/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Asian Fire Meat</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup soy sauce\n\n\n1 tablespoon sesame oil\n\n\n2 tablespoons brown sugar\n\n\n3 cloves garlic, crushed\n\n\n1 large red onion, chopped\n\n\n  ground black pepper to taste\n\n\n1 teaspoon red pepper flakes\n\n\n2 tablespoons sesame seeds\n\n\n2  leeks, chopped\n\n\n1 small carrot, chopped\n\n\n1 pound beef round steak, sliced paper thin"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup soy sauce\n\n\n1 tablespoon sesame oil\n\n\n2 tablespoons brown sugar\n\n\n3 cloves garlic, crushed\n\n\n1 large red onion, chopped\n\n\n  ground black pepper to taste\n\n\n1 teaspoon red pepper flakes\n\n\n2 tablespoons sesame seeds\n\n\n2  leeks, chopped\n\n\n1 small carrot, chopped\n\n\n1 pound beef round steak, sliced paper thin'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, mix together the soy sauce, sesame oil, brown sugar, garlic, and red onion. Stir in the black pepper, red pepper flakes, sesame seeds, leeks and carrot. Mix in the meat by hand to ensure even coating. Cover and let marinate for at least 2 hours or overnight."},{"recipe_directions":"Brush the bottom half of a wok with cooking oil, and heat over medium-high heat. Put in all of the meat and marinade at once, and cook stirring constantly. The meat will be cooked after just a few minutes. Remove from heat and serve with rice or noodles. For Korean-style fire meat, roll the meat mixture up in a leaf of red lettuce."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"382\nCalories\n\n\n21g \nFat\n\n\n22g \nCarbs\n\n\n27g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699641237-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/iS6sVh5u1k8sxorCqhwjgSmcIZ8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(499x0:501x2):format(webp)/692888-potstickers-chinese-dumplings-LZakaria-1x1-1-745d59650b2243ccb96f2017267de296.jpg"
@@ -1050,59 +1339,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/202975/potstickers-chinese-dumplings/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Potstickers (Chinese Dumplings)</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n50 mins\n\n\nCook Time:\n12 mins\n\n\nTotal Time:\n 1 hr 2 mins\n\n\nServings:\n12 \n\n\nYield:\n50 potstickers"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound raw shrimp, peeled and deveined \n\n\n4 pounds ground beef\n\n\n1 tablespoon minced fresh ginger root\n\n\n1  shallot, minced\n\n\n1 bunch green onions, chopped\n\n\n3 leaves napa cabbage, chopped\n\n\n2 tablespoons soy sauce\n\n\n1 teaspoon Asian (toasted) sesame oil\n\n\n  salt and white pepper to taste\n\n\n1 pinch white sugar\n\n\n1 (10 ounce) package round gyoza/potsticker wrappers\n\n\n  vegetable oil\n\n\n¼ cup water"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound raw shrimp, peeled and deveined \n\n\n4 pounds ground beef\n\n\n1 tablespoon minced fresh ginger root\n\n\n1  shallot, minced\n\n\n1 bunch green onions, chopped\n\n\n3 leaves napa cabbage, chopped\n\n\n2 tablespoons soy sauce\n\n\n1 teaspoon Asian (toasted) sesame oil\n\n\n  salt and white pepper to taste\n\n\n1 pinch white sugar\n\n\n1 (10 ounce) package round gyoza/potsticker wrappers\n\n\n  vegetable oil\n\n\n¼ cup water'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the shrimp in the work bowl of a food processor, and process until the shrimp are finely ground. Set aside in a large bowl. Working in batches, process the ground beef to a fine grind, and set aside with the shrimp. Combine the shrimp and ground beef with ginger, shallot, green onions, napa cabbage, soy sauce, sesame oil, salt and pepper, and white sugar, and mix the ingredients until thoroughly combined."},{"recipe_directions":"To fill the pot stickers, place a wrapper on a work surface in front of you, and place a scant teaspoon of filling in the center. With a wet finger, dampen the edges of the wrapper. Fold the dough into a half-moon shape, enclosing the filling, and press and seal to remove extra air and tightly seal the edges together. It's nice to fold several small pleats in the top half of the wrapper for a traditional look before you seal in the filling. Refrigerate the filled wrappers on a parchment-lined baking sheet while you finish filling and sealing the pot stickers."},{"recipe_directions":"Heat the oil in a large nonstick skillet with a lid over medium heat. Place pot stickers into the hot oil, flat sides down, without crowding, and let fry until the bottoms are golden brown, 1 to 2 minutes. Turn the dumplings over, and pour the water over them. Cover the pan with a lid and let the dumplings steam until the water has nearly evaporated and the dumplings have begun to fry in oil again, 5 to 7 minutes. Uncover the skillet, and let the pot stickers cook until all the water is evaporated and the wrapper has shrunk down tightly onto the filling, another 2 to 3 minutes."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of filling. The actual amount consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Dumpling Recipes"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"411\nCalories\n\n\n22g \nFat\n\n\n16g \nCarbs\n\n\n35g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699641243-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lqJ8oU2NLwKImwoVrKmiVnh9kPc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4538031-8f8e44c458ad47eab0e7b3af58e4c5f6.jpg"
@@ -1115,59 +1400,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/15679/asian-beef-with-snow-peas/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Asian Beef with Snow Peas</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons soy sauce\n\n\n2 tablespoons rice wine\n\n\n1 tablespoon brown sugar\n\n\n½ teaspoon cornstarch\n\n\n1 tablespoon vegetable oil\n\n\n1 tablespoon minced fresh ginger root\n\n\n1 tablespoon minced garlic\n\n\n1 pound beef round steak, cut into thin strips\n\n\n8 ounces snow peas"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons soy sauce\n\n\n2 tablespoons rice wine\n\n\n1 tablespoon brown sugar\n\n\n½ teaspoon cornstarch\n\n\n1 tablespoon vegetable oil\n\n\n1 tablespoon minced fresh ginger root\n\n\n1 tablespoon minced garlic\n\n\n1 pound beef round steak, cut into thin strips\n\n\n8 ounces snow peas'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a small bowl, combine the soy sauce, rice wine, brown sugar and cornstarch. Set aside."},{"recipe_directions":"Heat oil in a wok or skillet over medium high heat. Stir-fry ginger and garlic for 30 seconds. Add the steak and stir-fry for 2 minutes or until evenly browned. Add the snow peas and stir-fry for an additional 3 minutes. Add the soy sauce mixture, bring to a boil, stirring constantly. Lower heat and simmer until the sauce is thick and smooth. Serve immediately."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"203\nCalories\n\n\n10g \nFat\n\n\n10g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699641249-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/v1lv2af3yGoROOITxvrZhmjcWpM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1151x0:1153x2):format(webp)/5036079-59cc530d324f444b9fcc7cb26b191372.jpg"
@@ -1180,59 +1461,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/254527/bitter-melon-and-black-bean-sauce-beef/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Bitter Melon and Black Bean Sauce Beef</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"ice cubes\n\n\n1  bitter melon, seeded and sliced\n\n\n2 teaspoons soy sauce, divided\n\n\n2 teaspoons cornstarch, divided\n\n\n¼ teaspoon baking soda\n\n\n6 ounces beef, sliced\n\n\n1 tablespoon oil\n\n\n1 teaspoon oil\n\n\n½  onion, sliced\n\n\n2 cloves garlic\n\n\n1 tablespoon chopped fresh ginger\n\n\n1 tablespoon black bean sauce\n\n\n1 tablespoon oyster sauce\n\n\n1 pinch white sugar, or to taste\n\n\n¾ cup water\n\n\n1 teaspoon water\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'ice cubes\n\n\n1  bitter melon, seeded and sliced\n\n\n2 teaspoons soy sauce, divided\n\n\n2 teaspoons cornstarch, divided\n\n\n¼ teaspoon baking soda\n\n\n6 ounces beef, sliced\n\n\n1 tablespoon oil\n\n\n1 teaspoon oil\n\n\n½  onion, sliced\n\n\n2 cloves garlic\n\n\n1 tablespoon chopped fresh ginger\n\n\n1 tablespoon black bean sauce\n\n\n1 tablespoon oyster sauce\n\n\n1 pinch white sugar, or to taste\n\n\n¾ cup water\n\n\n1 teaspoon water\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Fill a bowl with ice; add enough salted water to make an ice bath. Bring a large pot of lightly salted water to a boil. Cook the bitter melon in the boiling water until tender yet firm, about 2 minutes; strain the melon. Place the melon into the ice bath; allow to sit until bitterness is extracted, about 1 hour. Drain melon."},{"recipe_directions":"Whisk 1 teaspoon soy sauce, 1 teaspoon cornstarch, and baking soda together in a bowl. Add beef and toss to evenly coat. Marinate in the refrigerator for 1 hour."},{"recipe_directions":"Heat wok, or a large skillet, on high until smoking. Add 1 tablespoon oil. Lay beef evenly across the bottom of the wok; cook until browned, about 2 minutes per side. Remove beef. Pour in 1 teaspoon of oil; allow to heat. Add onion, garlic, and ginger; cook and stir until fragrant, about 30 seconds. Stir in bitter melon; cook until combined, about 1 minute."},{"recipe_directions":"Stir black bean sauce into melon mixture. Stir in remaining soy sauce, oyster sauce, and sugar. Pour in 3/4 cup water; cover and let simmer until flavors combine, 2 to 3 minutes. Uncover and mix in remaining cornstarch and 1 teaspoon water and stir until thickened."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"141\nCalories\n\n\n9g \nFat\n\n\n8g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699641255-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZTYHDH124JSYN8UqWK5KZMdWTB0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1151x0:1153x2):format(webp)/6601365-893b817168854b01a1bdcfc5435e2fc7.jpg"
@@ -1245,59 +1522,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223389/flavorful-beef-stir-fry/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Flavorful Beef Stir-Fry</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups brown rice\n\n\n4 cups water\n\n\n2 tablespoons cornstarch\n\n\n2 teaspoons white sugar\n\n\n6 tablespoons soy sauce\n\n\n¼ cup white wine\n\n\n1 tablespoon minced fresh ginger\n\n\n1 pound boneless beef round steak, cut into thin strips\n\n\n1 tablespoon vegetable oil\n\n\n3 cups broccoli florets\n\n\n2  carrots, thinly sliced\n\n\n1 (6 ounce) package frozen pea pods, thawed\n\n\n2 tablespoons chopped onion\n\n\n1 (8 ounce) can sliced water chestnuts, undrained\n\n\n1 cup Chinese cabbage\n\n\n2 large heads bok choy, chopped\n\n\n1 tablespoon vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups brown rice\n\n\n4 cups water\n\n\n2 tablespoons cornstarch\n\n\n2 teaspoons white sugar\n\n\n6 tablespoons soy sauce\n\n\n¼ cup white wine\n\n\n1 tablespoon minced fresh ginger\n\n\n1 pound boneless beef round steak, cut into thin strips\n\n\n1 tablespoon vegetable oil\n\n\n3 cups broccoli florets\n\n\n2  carrots, thinly sliced\n\n\n1 (6 ounce) package frozen pea pods, thawed\n\n\n2 tablespoons chopped onion\n\n\n1 (8 ounce) can sliced water chestnuts, undrained\n\n\n1 cup Chinese cabbage\n\n\n2 large heads bok choy, chopped\n\n\n1 tablespoon vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring brown rice and water to a boil in a saucepan over high heat. Reduce heat to medium-low, cover, and simmer until rice is tender, and liquid has been absorbed, 45 to 50 minutes."},{"recipe_directions":"Combine cornstarch, sugar, soy sauce, and wine in a small bowl until smooth. Stir in ginger; toss beef in sauce to coat."},{"recipe_directions":"Heat 1 tablespoon oil in a large skillet over medium-high heat. Cook and stir broccoli, carrots, pea pods, and onion for 1 minute. Stir in water chestnuts, Chinese cabbage, and bok choy; cover and simmer until vegetables are tender, about 4 minutes. Remove from skillet and keep warm."},{"recipe_directions":"In same skillet, heat 1 tablespoon oil over medium-high heat. Cook and stir beef until desired degree of doneness, about 2 minutes per side for medium. Return vegetables to skillet; cook and stir until heated through, about 3 minutes. Serve over rice."},{"recipe_directions":"Try using apple juice or water instead of white wine."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"665\nCalories\n\n\n14g \nFat\n\n\n105g \nCarbs\n\n\n31g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699641262-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/YRdD5Ciue5ya73Jm7J-NnfmSKeY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/999688-53ee220d1e22457a9ce7e9405d32a648.jpg"
@@ -1310,59 +1583,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/231381/beef-lo-mein/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Beef Lo Mein</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (8 ounce) package spaghetti\n\n\n1 teaspoon dark sesame oil\n\n\n1 tablespoon peanut oil\n\n\n4 cloves garlic, minced\n\n\n1 tablespoon minced fresh ginger root\n\n\n4 cups mixed vegetables\n\n\n1 pound flank steak, thinly sliced\n\n\n3 tablespoons reduced-sodium soy sauce\n\n\n2 tablespoons brown sugar\n\n\n1 tablespoon oyster sauce\n\n\n1 tablespoon Asian chile paste with garlic"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (8 ounce) package spaghetti\n\n\n1 teaspoon dark sesame oil\n\n\n1 tablespoon peanut oil\n\n\n4 cloves garlic, minced\n\n\n1 tablespoon minced fresh ginger root\n\n\n4 cups mixed vegetables\n\n\n1 pound flank steak, thinly sliced\n\n\n3 tablespoons reduced-sodium soy sauce\n\n\n2 tablespoons brown sugar\n\n\n1 tablespoon oyster sauce\n\n\n1 tablespoon Asian chile paste with garlic'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Cook spaghetti in the boiling water until cooked through but firm to the bite, about 12 minutes; drain and transfer to a large bowl. Drizzle sesame oil over the spaghetti; toss to coat. Place a plate atop the bowl to keep the noodles warm."},{"recipe_directions":"Heat peanut oil in a wok or large skillet over medium-high heat. Cook and stir garlic and ginger in hot oil until fragrant, about 30 seconds. Add mixed vegetables to the skillet; cook and stir until slightly tender, about 3 minutes. Stir flank steak into the vegetable mixture; cook and stir until the beef is cooked through, about 5 minutes."},{"recipe_directions":"Mix soy sauce, brown sugar, oyster sauce, and chile paste together in a small bowl; pour over the spaghetti. Dump spaghetti and sauce mixture into the wok with the vegetables and steak; cook and stir until the spaghetti is hot, 2 to 3 minutes."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"519\nCalories\n\n\n15g \nFat\n\n\n73g \nCarbs\n\n\n26g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699641269-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-_cVoedOGuJHdZFR-QN43YSYneQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1585678-spicy-crispy-beef-kadek-4x3-1-caddbe8cbe1b4e6884facd59ffa37c20.jpg"
@@ -1376,59 +1645,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/23420/spicy-crispy-beef/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Spicy Crispy Beef</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup cornstarch\n\n\n¼ tablespoon salt\n\n\n  black pepper\n\n\n12 ounces flank steak, thinly sliced\n\n\n1 quart oil for frying\n\n\n4 tablespoons soy sauce\n\n\n1 tablespoon rice vinegar\n\n\n½ tablespoon rice wine\n\n\n1 ½ tablespoons honey\n\n\n7 tablespoons granulated sugar\n\n\n½ tablespoon chile paste\n\n\n¼ cup water\n\n\n3 tablespoons chopped fresh ginger root\n\n\n1 tablespoon vegetable oil\n\n\n2 cloves garlic, chopped\n\n\n¼ cup sliced onion\n\n\n¼ cup diced red bell pepper"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup cornstarch\n\n\n¼ tablespoon salt\n\n\n  black pepper\n\n\n12 ounces flank steak, thinly sliced\n\n\n1 quart oil for frying\n\n\n4 tablespoons soy sauce\n\n\n1 tablespoon rice vinegar\n\n\n½ tablespoon rice wine\n\n\n1 ½ tablespoons honey\n\n\n7 tablespoons granulated sugar\n\n\n½ tablespoon chile paste\n\n\n¼ cup water\n\n\n3 tablespoons chopped fresh ginger root\n\n\n1 tablespoon vegetable oil\n\n\n2 cloves garlic, chopped\n\n\n¼ cup sliced onion\n\n\n¼ cup diced red bell pepper'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in deep-fryer to 375 degrees F (190 degrees C)."},{"recipe_directions":"Meanwhile, in a mixing bowl, combine cornstarch, salt and pepper together. Mix thoroughly. Toss the steak slices in the cornstarch mixture and coat well."},{"recipe_directions":"Deep fry the coated steak slices until golden brown. Check to make sure they are cooked through. Remove from oil, and set aside."},{"recipe_directions":"In another mixing bowl, combine the soy sauce, rice vinegar, rice wine and honey. Add sugar, chili paste, water, and ginger. Mix well and set aside."},{"recipe_directions":"Heat a wok or deep frying pan over medium high heat. Add 1 tablespoon of oil, and quickly saute the onion, garlic and red pepper for 30 seconds. Add the sauce mixture, and cook another 30 seconds. Finally, add the strips of fried steak and toss to heat through and coat with sauce."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount may vary depending on cook time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"489\nCalories\n\n\n32g \nFat\n\n\n41g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699641275-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/eHMsq8J6w7Fc1lQPedZhcSsF6g4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(799x0:801x2):format(webp)/4517196-grilled-hoisin-beef-Chef-John-1x1-1-93e5ea704bed4c468887475367bdf77f.jpg"
@@ -1442,59 +1707,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/258215/grilled-hoisin-beef/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Grilled Hoisin Beef</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n8 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 18 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (1 pound) beef skirt steak\n\n\n⅓ cup hoisin sauce\n\n\n3 tablespoons Chinese vinegar (or sherry vinegar)\n\n\n1 tablespoon soy sauce\n\n\n2 teaspoons hot sauce\n\n\n2 teaspoons sesame oil\n\n\n1 tablespoon grated fresh ginger root\n\n\n4 cloves garlic, finely minced\n\n\n1 tablespoon packed brown sugar\n\n\n1 teaspoon salt\n\n\n½ teaspoon freshly ground black pepper\n\n\n1  green onion, light parts only, minced\n\n\n  Toasted sesame seeds"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (1 pound) beef skirt steak\n\n\n⅓ cup hoisin sauce\n\n\n3 tablespoons Chinese vinegar (or sherry vinegar)\n\n\n1 tablespoon soy sauce\n\n\n2 teaspoons hot sauce\n\n\n2 teaspoons sesame oil\n\n\n1 tablespoon grated fresh ginger root\n\n\n4 cloves garlic, finely minced\n\n\n1 tablespoon packed brown sugar\n\n\n1 teaspoon salt\n\n\n½ teaspoon freshly ground black pepper\n\n\n1  green onion, light parts only, minced\n\n\n  Toasted sesame seeds'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk hoisin sauce, vinegar, soy sauce, hot sauce, sesame oil, grated ginger, garlic, brown sugar, salt, and pepper together in a large mixing bowl."},{"recipe_directions":"Cut skirt steak crosswise into about 4 or 5 smaller pieces. Transfer steak into marinade and toss until all pieces are evenly coated. Cover with plastic wrap. Refrigerate; marinate at least 2 hours and up to 12 hours."},{"recipe_directions":"Line a baking pan with paper towels. Transfer pieces of steak to the paper towels and mop off some of the marinade."},{"recipe_directions":"Preheat an outdoor grill for high heat and lightly oil the grate."},{"recipe_directions":"Transfer steak pieces to grill. Cook to medium rare or medium, 4 to 5 minutes per side. An instant-read thermometer inserted into the center should read between 130 and 135 degrees F (about 54 degrees C). Thinner pieces might finish earlier. Transfer steak to a warm plate. Let rest for a few minutes."},{"recipe_directions":"Transfer steak to a warm serving platter and pour any accumulated juices over skirt steak. Sprinkle with sesame seeds and sliced green onions."},{"recipe_directions":"I served this over Savory Coconut Rice."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"404\nCalories\n\n\n16g \nFat\n\n\n33g \nCarbs\n\n\n30g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699641281-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KfX0CRTxZ3k0ZmiIzKgV5j3w-4Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/50233-BlackPepperBeefandCabbageStirFry-ddmps-104047-cef2008e035d4cd183cc6ad2c9abbb74.jpg"
@@ -1508,59 +1769,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/50233/black-pepper-beef-and-cabbage-stir-fry/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Black Pepper Beef and Cabbage Stir Fry</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons vegetable oil\n\n\n4 cloves garlic, chopped\n\n\n½ pound ground beef\n\n\n½ small head cabbage, shredded\n\n\n1  red bell pepper, cut into strips\n\n\n2 tablespoons soy sauce\n\n\n1 teaspoon cornstarch\n\n\n½ cup cold water\n\n\n1 teaspoon ground black pepper, or to taste\n\n\n1 pinch salt, to taste"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons vegetable oil\n\n\n4 cloves garlic, chopped\n\n\n½ pound ground beef\n\n\n½ small head cabbage, shredded\n\n\n1  red bell pepper, cut into strips\n\n\n2 tablespoons soy sauce\n\n\n1 teaspoon cornstarch\n\n\n½ cup cold water\n\n\n1 teaspoon ground black pepper, or to taste\n\n\n1 pinch salt, to taste'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather ingredients."},{"recipe_directions":"Heat a wok or large skillet over medium-high heat, and add oil. Saute garlic for about 5 seconds, then add ground beef. Stir-fry until beef is evenly brown, 5 to 7 minutes; drain excess fat."},{"recipe_directions":"Stir in cabbage and pepper, and cook until vegetables are tender and beef is fully cooked. Stir in soy sauce."},{"recipe_directions":"Mix together cornstarch and water, and stir in. Season with pepper; add salt to taste. Cook, stirring, until sauce has thickened."},{"recipe_directions":"Serve hot and enjoy!"}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"280\nCalories\n\n\n22g \nFat\n\n\n10g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699641288-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/YPeK4zFDq9bFNvSkE9zzKhxxiVA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2369384-slow-cooker-mongolian-beef-Amy-Lawler-4x3-1-4ae82774323348b2891358e2ea2a585d.jpg"
@@ -1574,59 +1831,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/195083/slow-cooker-mongolian-beef/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Slow Cooker Mongolian Beef</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 4 hrs 10 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 4 hrs 30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound flank steak, cut into bite-size pieces\n\n\n¼ cup cornstarch\n\n\n2 teaspoons olive oil\n\n\n1  onion, thinly sliced\n\n\n1 tablespoon minced garlic\n\n\n3 large green onions, sliced diagonally into 1/2 inch pieces\n\n\n½ cup soy sauce\n\n\n½ cup water\n\n\n½ cup brown sugar\n\n\n½ teaspoon minced fresh ginger root\n\n\n½ cup hoisin sauce"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound flank steak, cut into bite-size pieces\n\n\n¼ cup cornstarch\n\n\n2 teaspoons olive oil\n\n\n1  onion, thinly sliced\n\n\n1 tablespoon minced garlic\n\n\n3 large green onions, sliced diagonally into 1/2 inch pieces\n\n\n½ cup soy sauce\n\n\n½ cup water\n\n\n½ cup brown sugar\n\n\n½ teaspoon minced fresh ginger root\n\n\n½ cup hoisin sauce'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place flank steak and cornstarch into a resealable plastic bag. Shake the bag to evenly coat the flank steak with the cornstarch. Allow to steak rest for 10 minutes."},{"recipe_directions":"Heat olive oil in a large skillet over medium-high heat. Cook and stir steak until evenly browned, 2 to 4 minutes. Place onion, garlic, flank steak, green onions, soy sauce, water, brown sugar, ginger, and hoisin sauce in a slow cooker. Cook on Low setting for about 4 hours."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"450\nCalories\n\n\n13g \nFat\n\n\n55g \nCarbs\n\n\n28g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699641295-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dZ12wvsoR0LGYMGveQ7LWqTakAw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/562922-b0054037d72e49299fd42ccba9c482b5.jpg"
@@ -1639,59 +1892,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16254/beef-with-vegetables/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Beef with Vegetables</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8 ounces beef filet, cut into 1/2 inch strips\n\n\n2 tablespoons vegetable oil\n\n\n1  onion, chopped\n\n\n1 clove garlic, minced\n\n\n1 teaspoon chopped fresh ginger root\n\n\n1  green bell pepper, chopped\n\n\n1  carrot, chopped\n\n\n1 (10.5 ounce) can beef broth\n\n\n1 tablespoon cornstarch\n\n\n1 teaspoon white sugar\n\n\n1 tablespoon soy sauce\n\n\n1 tablespoon oyster sauce\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 ounces beef filet, cut into 1/2 inch strips\n\n\n2 tablespoons vegetable oil\n\n\n1  onion, chopped\n\n\n1 clove garlic, minced\n\n\n1 teaspoon chopped fresh ginger root\n\n\n1  green bell pepper, chopped\n\n\n1  carrot, chopped\n\n\n1 (10.5 ounce) can beef broth\n\n\n1 tablespoon cornstarch\n\n\n1 teaspoon white sugar\n\n\n1 tablespoon soy sauce\n\n\n1 tablespoon oyster sauce\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large skillet over medium high heat, saute the beef slices in the oil for 5 minutes, or until well browned. Add the onion, garlic and ginger and saute for 5 more minutes. Then add the green bell pepper, carrot and beef broth. Reduce heat to low and let simmer."},{"recipe_directions":"Meanwhile, in a separate small bowl, combine the corn flour, sugar, soy sauce and oyster sauce, if desired. Stir thoroughly, forming a smooth paste. Slowly add this to the simmering beef and vegetables, stirring well, and let simmer to desired thickness. Season with salt and pepper to taste."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"267\nCalories\n\n\n20g \nFat\n\n\n9g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699641303-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ahFTPwIXZ-sVVynLPNPwd2NvBOo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/385999-9ee53db2a875481bbf4257a0ff0c2a98.jpg"
@@ -1704,59 +1953,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/148831/super-simple-super-spicy-mongolian-beef/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Super-Simple, Super-Spicy Mongolian Beef</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 25 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup soy sauce\n\n\n1 tablespoon hoisin sauce\n\n\n1 tablespoon sesame oil\n\n\n2 teaspoons white sugar\n\n\n1 tablespoon minced garlic\n\n\n1 tablespoon red pepper flakes (Optional)\n\n\n1 pound beef flank steak, thinly sliced\n\n\n1 tablespoon peanut oil\n\n\n2 large green onions, thinly sliced"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup soy sauce\n\n\n1 tablespoon hoisin sauce\n\n\n1 tablespoon sesame oil\n\n\n2 teaspoons white sugar\n\n\n1 tablespoon minced garlic\n\n\n1 tablespoon red pepper flakes (Optional)\n\n\n1 pound beef flank steak, thinly sliced\n\n\n1 tablespoon peanut oil\n\n\n2 large green onions, thinly sliced'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together soy sauce, hoisin sauce, sesame oil, sugar, garlic, and red pepper flakes in a large bowl. Toss beef with marinade; cover the bowl and refrigerate for 1 hour to overnight."},{"recipe_directions":"Heat peanut oil in a wok or large, nonstick skillet over high heat. Cook and stir green onions in hot oil for 5 to 10 seconds. Remove beef from marinade and add to green onions in the wok; discard marinade. Cook and stir until beef is no longer pink and begins to brown, about 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"200\nCalories\n\n\n12g \nFat\n\n\n8g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699641310-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3buUPqc0DWy7kSkmRiijxbdaQk0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/303105-3165cd1f78e34f8fa07c1d1ffdbfab38.jpg"
@@ -1769,59 +2014,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20095/szechuan-beef/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Szechuan Beef</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon soy sauce\n\n\n2 teaspoons cornstarch\n\n\n1 clove garlic, minced\n\n\n¼ teaspoon crushed red pepper\n\n\n1 pound sirloin steak, cut into bite-sized strips\n\n\n2 tablespoons vegetable oil\n\n\n3 cups fresh broccoli florets\n\n\n2 small onions, cut into wedges\n\n\n1 (8 ounce) can water chestnuts, drained\n\n\n¼ cup chicken broth\n\n\n½ cup peanuts"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon soy sauce\n\n\n2 teaspoons cornstarch\n\n\n1 clove garlic, minced\n\n\n¼ teaspoon crushed red pepper\n\n\n1 pound sirloin steak, cut into bite-sized strips\n\n\n2 tablespoons vegetable oil\n\n\n3 cups fresh broccoli florets\n\n\n2 small onions, cut into wedges\n\n\n1 (8 ounce) can water chestnuts, drained\n\n\n¼ cup chicken broth\n\n\n½ cup peanuts'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir together soy sauce, cornstarch, garlic, and crushed red pepper in a non-metal bowl. Add steak and toss to coat. Cover the bowl and refrigerate for 20 minutes."},{"recipe_directions":"Heat oil in a wok or large skillet over high heat. Stir-fry beef in hot oil until no longer pink, about 5 minutes. Add broccoli, onions, and water chestnuts; cook and stir for 2 minutes. Pour in broth and bring to a boil. Stir in peanuts; cook for 1 minute and serve hot."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"306\nCalories\n\n\n21g \nFat\n\n\n13g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699641317-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-yrc0H8YJf1EPq35qKCERULibOU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/9387480-crispy-orange-beef-Dave-Bloomquist-4x3-1-c58f6864e49c4915aeac545a95d6b46e.jpg"
@@ -1835,59 +2076,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/57966/crispy-orange-beef/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Crispy Orange Beef</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n50 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 40 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds beef top sirloin, thinly sliced\n\n\n2 cups water\n\n\n1 cup long grain rice\n\n\n⅓ cup white sugar\n\n\n⅓ cup rice wine vinegar\n\n\n2 tablespoons frozen orange juice concentrate\n\n\n1 tablespoon soy sauce\n\n\n1 teaspoon salt\n\n\n2 cups oil for frying\n\n\n¼ cup cornstarch\n\n\n3 tablespoons grated fresh ginger \n\n\n1 ½ tablespoons minced garlic\n\n\n2 teaspoons orange zest\n\n\n8  broccoli florets, lightly steamed or blanched"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds beef top sirloin, thinly sliced\n\n\n2 cups water\n\n\n1 cup long grain rice\n\n\n⅓ cup white sugar\n\n\n⅓ cup rice wine vinegar\n\n\n2 tablespoons frozen orange juice concentrate\n\n\n1 tablespoon soy sauce\n\n\n1 teaspoon salt\n\n\n2 cups oil for frying\n\n\n¼ cup cornstarch\n\n\n3 tablespoons grated fresh ginger \n\n\n1 ½ tablespoons minced garlic\n\n\n2 teaspoons orange zest\n\n\n8  broccoli florets, lightly steamed or blanched'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Lay beef in a single layer on a baking sheet lined with paper towels. Allow to dry in the refrigerator for 30 minutes."},{"recipe_directions":"Meanwhile, bring water and rice to a boil in a medium saucepan. Reduce heat to medium-low, cover, and simmer until rice is tender, about 20 minutes."},{"recipe_directions":"Mix together sugar, rice vinegar, orange juice concentrate, soy sauce, and salt in a small bowl. Set aside."},{"recipe_directions":"Heat oil in a wok over medium-high heat. Toss dried beef in cornstarch to coat. Fry coated beef in hot oil in small batches until crispy and golden brown; set aside. Drain oil from the wok, leaving about 1 tablespoon."},{"recipe_directions":"Add ginger, garlic, and orange zest to remaining oil in wok. Cook and stir briefly until fragrant. Pour in soy sauce mixture; bring to a boil and cook until thick and syrupy, about 5 minutes. Stir in fried beef and cook until heated through. Serve hot over steamed rice and garnish with broccoli."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"507\nCalories\n\n\n19g \nFat\n\n\n59g \nCarbs\n\n\n27g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699641322-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/22838/world-cuisine/asian/chinese/main-dishes/beef/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/uvEJIfbX1PqbV3hihIHo-NYfUTw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6461517-crispy-ginger-beef-Theresa-Nee-Fox-Ruel-4x3-1-d5f6f2f11b924d6894d8af246c731e60.jpg"
@@ -1901,42 +2138,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/237807/crispy-ginger-beef/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Crispy Ginger Beef</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n5"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ cup cornstarch\n\n\n½ cup water\n\n\n2 large eggs\n\n\n1 pound flank steak, cut into thin strips\n\n\n½ cup canola oil, or as needed\n\n\n1 large carrot, cut into matchstick-size pieces\n\n\n1  green bell pepper, cut into matchstick-size pieces\n\n\n1  red bell pepper, cut into matchstick-size pieces\n\n\n3  green onions, chopped\n\n\n¼ cup minced fresh ginger root\n\n\n5  garlic cloves, minced\n\n\n½ cup white sugar\n\n\n¼ cup rice vinegar\n\n\n3 tablespoons soy sauce\n\n\n1 tablespoon sesame oil\n\n\n1 tablespoon red pepper flakes, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup cornstarch\n\n\n½ cup water\n\n\n2 large eggs\n\n\n1 pound flank steak, cut into thin strips\n\n\n½ cup canola oil, or as needed\n\n\n1 large carrot, cut into matchstick-size pieces\n\n\n1  green bell pepper, cut into matchstick-size pieces\n\n\n1  red bell pepper, cut into matchstick-size pieces\n\n\n3  green onions, chopped\n\n\n¼ cup minced fresh ginger root\n\n\n5  garlic cloves, minced\n\n\n½ cup white sugar\n\n\n¼ cup rice vinegar\n\n\n3 tablespoons soy sauce\n\n\n1 tablespoon sesame oil\n\n\n1 tablespoon red pepper flakes, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place cornstarch in a large bowl; gradually whisk in water until smooth. Whisk eggs into cornstarch mixture; toss steak strips in mixture to coat."},{"recipe_directions":"Pour canola oil into a wok, 1-inch deep; heat oil over high heat until hot but not smoking. Place 1/4 of the beef strips into hot oil; separate strips with a fork. Cook, stirring frequently, until coating is crisp and golden, about 3 minutes. Remove beef to drain on paper towels; repeat with remaining beef."},{"recipe_directions":"Drain off all but 1 tablespoon oil; cook and stir carrot, bell peppers, green onions, ginger, and garlic over high heat until lightly browned but still crisp, about 3 minutes."},{"recipe_directions":"Whisk sugar, rice vinegar, soy sauce, sesame oil, and red pepper flakes together in a small bowl. Pour sauce mixture over vegetables in wok; bring mixture to a boil. Stir beef back into vegetable mixture; cook and stir just until heated through, about 3 minutes."},{"recipe_directions":"This is the original recipe but I like to add about 1/4 cup of teriyaki sauce as a variation. I also like to add sesame oil to the oil when I fry the beef."},{"recipe_directions":"The nutrition data for this recipe includes the full amount of the coating ingredients. The actual amount of the coating consumed will vary. We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount will vary depending on cooking time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"364\nCalories\n\n\n14g \nFat\n\n\n45g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>